--- a/Design/数据表/文本/说明和提示文本.xlsx
+++ b/Design/数据表/文本/说明和提示文本.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>C0</t>
+  </si>
+  <si>
+    <t>c1%d</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -637,58 +645,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="20" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="24" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="28" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="32" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="36" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="40" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="21" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="25" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="29" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="37" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="22" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="26" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="30" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="34" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="38" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="20"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="24"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="32"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="36"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="40"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="21"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="25"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="29"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="37"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="30"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="34"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="38"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="42"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1 2" xfId="3" customBuiltin="1"/>
-    <cellStyle name="标题 2 2" xfId="4" customBuiltin="1"/>
-    <cellStyle name="标题 3 2" xfId="5" customBuiltin="1"/>
-    <cellStyle name="标题 4 2" xfId="6" customBuiltin="1"/>
-    <cellStyle name="差 2" xfId="8" customBuiltin="1"/>
+    <cellStyle name="标题 1 2" xfId="3"/>
+    <cellStyle name="标题 2 2" xfId="4"/>
+    <cellStyle name="标题 3 2" xfId="5"/>
+    <cellStyle name="标题 4 2" xfId="6"/>
+    <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="好 2" xfId="7" customBuiltin="1"/>
-    <cellStyle name="汇总 2" xfId="18" customBuiltin="1"/>
-    <cellStyle name="计算 2" xfId="12" customBuiltin="1"/>
-    <cellStyle name="检查单元格 2" xfId="14" customBuiltin="1"/>
-    <cellStyle name="解释性文本 2" xfId="17" customBuiltin="1"/>
-    <cellStyle name="警告文本 2" xfId="15" customBuiltin="1"/>
-    <cellStyle name="链接单元格 2" xfId="13" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="19" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="23" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="27" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="31" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="35" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="39" customBuiltin="1"/>
-    <cellStyle name="适中 2" xfId="9" customBuiltin="1"/>
-    <cellStyle name="输出 2" xfId="11" customBuiltin="1"/>
-    <cellStyle name="输入 2" xfId="10" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="16" customBuiltin="1"/>
+    <cellStyle name="好 2" xfId="7"/>
+    <cellStyle name="汇总 2" xfId="18"/>
+    <cellStyle name="计算 2" xfId="12"/>
+    <cellStyle name="检查单元格 2" xfId="14"/>
+    <cellStyle name="解释性文本 2" xfId="17"/>
+    <cellStyle name="警告文本 2" xfId="15"/>
+    <cellStyle name="链接单元格 2" xfId="13"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="19"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="23"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="27"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="31"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="35"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="39"/>
+    <cellStyle name="适中 2" xfId="9"/>
+    <cellStyle name="输出 2" xfId="11"/>
+    <cellStyle name="输入 2" xfId="10"/>
+    <cellStyle name="注释 2" xfId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1030,6 +1041,17 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
